--- a/xlsx/司法_intext.xlsx
+++ b/xlsx/司法_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
   <si>
     <t>司法</t>
   </si>
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%8D%A8%E7%AB%8B</t>
   </si>
   <si>
-    <t>司法獨立</t>
+    <t>司法独立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E8%AA%8C</t>
   </si>
   <si>
-    <t>標誌</t>
+    <t>标志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>法律體制</t>
+    <t>法律体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E6%B3%95</t>
   </si>
   <si>
-    <t>大陸法</t>
+    <t>大陆法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E9%99%A2</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
+    <t>宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治學基本主題列表</t>
+    <t>政治学基本主题列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>國際關係理論</t>
+    <t>国际关系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E9%99%B8%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>歐陸法系</t>
+    <t>欧陆法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AE%98</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AA%A2%E5%AF%9F%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>檢察機關</t>
+    <t>检察机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%BE%8E%E6%B3%95%E7%B3%BB</t>
@@ -443,19 +443,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>律師</t>
+    <t>律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AC%80%E6%AE%BA</t>
   </si>
   <si>
-    <t>謀殺</t>
+    <t>谋杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E5%A7%A6</t>
   </si>
   <si>
-    <t>強姦</t>
+    <t>强奸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -467,19 +467,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%AA%E5%AF%A9%E5%9C%98</t>
   </si>
   <si>
-    <t>陪審團</t>
+    <t>陪审团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%88%E4%BE%8B%E6%B3%95</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%AC%8A%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>三權分立</t>
+    <t>三权分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF</t>
@@ -509,13 +509,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>立法機構</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -527,7 +524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
@@ -3343,7 +3340,7 @@
         <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3369,10 +3366,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" t="s">
         <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -3398,10 +3395,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>167</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3427,10 +3424,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3456,10 +3453,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>5</v>
@@ -3485,10 +3482,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F90" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>

--- a/xlsx/司法_intext.xlsx
+++ b/xlsx/司法_intext.xlsx
@@ -29,7 +29,7 @@
     <t>正义女神</t>
   </si>
   <si>
-    <t>政策_政策_行政_司法</t>
+    <t>体育运动_体育运动_欧洲议会_司法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%8D%A8%E7%AB%8B</t>
